--- a/data/trans_bre/P2A_psíq_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2A_psíq_R-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,25</t>
+          <t>0,0; 1,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 2,72</t>
+          <t>0,0; 2,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 0,73</t>
+          <t>-1,27; 0,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 3,21</t>
+          <t>-3,57; 3,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-41,45; inf</t>
+          <t>-36,59; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-98,71; 863,06</t>
+          <t>-100,0; 505,6</t>
         </is>
       </c>
     </row>
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 0,64</t>
+          <t>-0,71; 0,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 0,69</t>
+          <t>-2,08; 0,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 1,47</t>
+          <t>-0,8; 1,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 3,96</t>
+          <t>-0,39; 3,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,17 +793,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-84,06; 118,61</t>
+          <t>-88,51; 123,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-64,32; 538,88</t>
+          <t>-74,02; 376,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-40,53; 1220,89</t>
+          <t>-47,46; 1150,83</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 1,36</t>
+          <t>-0,96; 1,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,11; 3,66</t>
+          <t>0,14; 3,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 1,77</t>
+          <t>-0,12; 1,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,14; 2,98</t>
+          <t>0,12; 3,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-69,98; 468,49</t>
+          <t>-70,52; 554,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 562,14</t>
+          <t>-3,45; 578,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-35,26; —</t>
+          <t>-37,57; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 551,72</t>
+          <t>-3,57; 562,8</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 1,54</t>
+          <t>-1,76; 1,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 2,35</t>
+          <t>-1,5; 2,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 1,45</t>
+          <t>-0,99; 1,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 1,64</t>
+          <t>-1,82; 1,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-66,1; 173,42</t>
+          <t>-71,74; 161,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-50,83; 217,15</t>
+          <t>-50,36; 250,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-64,96; 370,32</t>
+          <t>-66,19; 272,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-43,86; 83,33</t>
+          <t>-42,9; 73,63</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 2,95</t>
+          <t>-0,2; 2,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 1,73</t>
+          <t>-2,42; 1,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 3,23</t>
+          <t>-1,09; 3,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 1,1</t>
+          <t>-2,16; 1,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-68,19; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-69,52; 130,33</t>
+          <t>-68,34; 130,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-55,7; 490,41</t>
+          <t>-50,69; 417,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-57,55; 60,85</t>
+          <t>-57,89; 66,5</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 1,12</t>
+          <t>-2,1; 1,28</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 0,39</t>
+          <t>-3,85; 0,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 3,01</t>
+          <t>-0,15; 2,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,43; 37,46</t>
+          <t>0,29; 32,71</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-69,74; 96,12</t>
+          <t>-69,29; 111,96</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-76,06; 24,69</t>
+          <t>-76,38; 17,66</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-17,05; 433,77</t>
+          <t>-15,76; 422,35</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>13,17; 1794,99</t>
+          <t>7,95; 1616,08</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 0,72</t>
+          <t>-0,31; 0,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 0,92</t>
+          <t>-0,46; 0,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,08; 1,21</t>
+          <t>0,07; 1,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,37; 13,43</t>
+          <t>0,4; 12,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-27,89; 105,85</t>
+          <t>-29,84; 106,94</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-22,47; 62,73</t>
+          <t>-21,21; 64,26</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,81; 162,04</t>
+          <t>2,62; 165,96</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>14,77; 726,53</t>
+          <t>14,98; 625,28</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2A_psíq_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2A_psíq_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,42%</t>
+          <t>-6,81%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 3,36</t>
+          <t>-3,73; 3,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 505,6</t>
+          <t>-100,0; 523,35</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -735,12 +735,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-19,75%</t>
+          <t>17,84%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>160,24%</t>
+          <t>172,3%</t>
         </is>
       </c>
     </row>
@@ -768,7 +768,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 0,65</t>
+          <t>-0,59; 0,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -783,12 +783,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 3,85</t>
+          <t>-0,32; 4,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-47,46; 1150,83</t>
+          <t>-56,32; 1365,85</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -830,12 +830,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -850,12 +850,12 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>174,08%</t>
+          <t>206,52%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>130,44%</t>
+          <t>119,91%</t>
         </is>
       </c>
     </row>
@@ -878,12 +878,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 1,76</t>
+          <t>0,01; 1,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,12; 3,13</t>
+          <t>-0,09; 2,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -898,19 +898,19 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-37,57; —</t>
+          <t>-36,14; 1709,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 562,8</t>
+          <t>-10,83; 505,07</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,7 +920,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -935,12 +935,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>13,4%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-0,58%</t>
+          <t>26,92%</t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 1,46</t>
+          <t>-1,57; 1,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -983,12 +983,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 1,59</t>
+          <t>-1,18; 2,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-71,74; 161,17</t>
+          <t>-65,92; 178,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-42,9; 73,63</t>
+          <t>-33,34; 214,92</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-14,95%</t>
+          <t>-20,56%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 1,13</t>
+          <t>-2,28; 0,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-57,89; 66,5</t>
+          <t>-59,74; 55,62</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>-2,06</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>11,3</t>
+          <t>32,99</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-16,88%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-44,2%</t>
+          <t>-65,84%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>102,97%</t>
+          <t>50,48%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>389,25%</t>
+          <t>1242,71%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 1,28</t>
+          <t>-1,46; 1,84</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 0,24</t>
+          <t>-4,64; 0,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 2,91</t>
+          <t>-1,22; 3,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,29; 32,71</t>
+          <t>-0,26; 72,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-69,29; 111,96</t>
+          <t>-79,0; 473,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-76,38; 17,66</t>
+          <t>-100,0; 37,14</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-15,76; 422,35</t>
+          <t>-53,92; 388,35</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,95; 1616,08</t>
+          <t>-12,29; 5377,02</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,44</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>22,12%</t>
+          <t>-33,91%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>12,53%</t>
+          <t>-26,85%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>69,26%</t>
+          <t>293,25%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>149,9%</t>
+          <t>45,69%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 0,72</t>
+          <t>-4,47; 1,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
+          <t>-4,21; 1,77</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0,03; 4,02</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-0,8; 3,66</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-82,8; 124,1</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-74,1; 130,42</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-27,87; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-19,57; 178,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0,26</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0,68</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>6,09</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>28,7%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>12,53%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>71,97%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>288,49%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>-0,26; 0,78</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
           <t>-0,46; 0,93</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>0,07; 1,2</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>0,4; 12,93</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-29,84; 106,94</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0,11; 1,24</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0,45; 22,24</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>-26,02; 112,17</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>-21,21; 64,26</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>2,62; 165,96</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>14,98; 625,28</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>4,71; 172,69</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>18,61; 1231,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P2A_psíq_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2A_psíq_R-Edad-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con limitación, discapacidad psíquica</t>
+          <t>Hogares con personas con limitación por discapacidad psíquica</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,05</t>
+          <t>0,0; 1,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,93</t>
+          <t>-0,11; 2,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 0,74</t>
+          <t>-1,3; 0,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 3,19</t>
+          <t>-3,67; 2,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-36,59; —</t>
+          <t>-46,68; 1098,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 523,35</t>
+          <t>-100,0; 778,44</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 0,88</t>
+          <t>-0,64; 0,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 0,69</t>
+          <t>-2,07; 0,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 1,34</t>
+          <t>-0,89; 1,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 4,02</t>
+          <t>-0,38; 3,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-88,51; 123,58</t>
+          <t>-84,66; 110,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-74,02; 376,25</t>
+          <t>-75,21; 360,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-56,32; 1365,85</t>
+          <t>-46,92; 1198,85</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 1,3</t>
+          <t>-1,02; 1,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,14; 3,5</t>
+          <t>0,32; 3,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,01; 1,96</t>
+          <t>0,0; 1,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 2,92</t>
+          <t>-0,02; 2,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-70,52; 554,96</t>
+          <t>-79,0; 401,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 578,65</t>
+          <t>1,4; 572,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-36,14; 1709,86</t>
+          <t>-25,21; 1259,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,83; 505,07</t>
+          <t>-7,35; 490,73</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 1,74</t>
+          <t>-1,61; 1,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 2,4</t>
+          <t>-1,41; 2,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 1,45</t>
+          <t>-0,86; 1,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 2,67</t>
+          <t>-1,17; 2,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-65,92; 178,97</t>
+          <t>-62,44; 267,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-50,36; 250,06</t>
+          <t>-50,59; 210,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-66,19; 272,98</t>
+          <t>-54,34; 426,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-33,34; 214,92</t>
+          <t>-34,35; 203,7</t>
         </is>
       </c>
     </row>
@@ -1068,22 +1068,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 2,71</t>
+          <t>-0,21; 2,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 1,79</t>
+          <t>-2,58; 1,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 3,03</t>
+          <t>-1,16; 3,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 0,9</t>
+          <t>-2,25; 1,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1093,17 +1093,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-68,34; 130,14</t>
+          <t>-69,81; 144,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-50,69; 417,5</t>
+          <t>-60,45; 384,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-59,74; 55,62</t>
+          <t>-61,5; 58,09</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 1,84</t>
+          <t>-1,67; 1,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 0,18</t>
+          <t>-4,75; -0,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 3,14</t>
+          <t>-1,01; 3,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 72,66</t>
+          <t>-0,19; 69,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-79,0; 473,71</t>
+          <t>-83,18; 407,59</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 37,14</t>
+          <t>-100,0; 42,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-53,92; 388,35</t>
+          <t>-56,04; 424,47</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-12,29; 5377,02</t>
+          <t>-7,2; 4822,68</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 1,45</t>
+          <t>-4,53; 1,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 1,77</t>
+          <t>-4,3; 1,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,03; 4,02</t>
+          <t>0,21; 4,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 3,66</t>
+          <t>-0,83; 3,61</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-82,8; 124,1</t>
+          <t>-85,87; 98,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-74,1; 130,42</t>
+          <t>-74,85; 105,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-27,87; —</t>
+          <t>-37,51; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-19,57; 178,3</t>
+          <t>-20,1; 186,44</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 0,78</t>
+          <t>-0,24; 0,77</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 0,93</t>
+          <t>-0,51; 0,94</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,11; 1,24</t>
+          <t>0,14; 1,21</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,45; 22,24</t>
+          <t>0,51; 23,22</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-26,02; 112,17</t>
+          <t>-23,18; 109,91</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-21,21; 64,26</t>
+          <t>-23,3; 64,93</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,71; 172,69</t>
+          <t>10,55; 179,03</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>18,61; 1231,89</t>
+          <t>21,85; 1267,66</t>
         </is>
       </c>
     </row>
